--- a/biology/Médecine/Samira_Islam/Samira_Islam.xlsx
+++ b/biology/Médecine/Samira_Islam/Samira_Islam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samira Ibrahim Islam est une pharmacologue saoudienne. Elle est directrice de l'unité de contrôle des médicaments au centre du Roi Fahd, à l'université du roi Abdulaziz. 
-Elle a contribué à faire avancer la cause de l'éducation des femmes en Arabie saoudite[1]. Elle est la première femme saoudienne à obtenir un doctorat de philosophie, et la première personne d'origine saoudienne à devenir professeur émérite de pharmacologie, en 1983[1].
+Elle a contribué à faire avancer la cause de l'éducation des femmes en Arabie saoudite. Elle est la première femme saoudienne à obtenir un doctorat de philosophie, et la première personne d'origine saoudienne à devenir professeur émérite de pharmacologie, en 1983.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant ses études secondaires, Samira Islam est envoyée en Égypte afin de poursuivre sa scolarité. Elle est la première femme saoudienne à devenir docteur en philosophie[2]. À partir de 1971, elle donne des conférences à l'université du roi Abdulaziz. Elle est nommée conseillère à l'Académie pour les sections féminines dans les antennes de l'université de La Mecque et de Djeddah en 1973. Elle travaille à l'ouverture des études universitaires pour les Saoudiennes. Elle devient vice-doyenne de la faculté de Médecine en 1974[1].
-Elle étudie le métabolisme des médicaments sur la population saoudienne[3]. Elle fonde et dirige l'Unité de contrôle des médicaments au Centre du Roi Fahd à l'université du roi Abdulaziz[4]. Elle est la première personne d'origine saoudienne à devenir professeur en pharmacologie, en 1983[5]. Elle siège au conseil d'administration de l'Arab Science and Technology Foundation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant ses études secondaires, Samira Islam est envoyée en Égypte afin de poursuivre sa scolarité. Elle est la première femme saoudienne à devenir docteur en philosophie. À partir de 1971, elle donne des conférences à l'université du roi Abdulaziz. Elle est nommée conseillère à l'Académie pour les sections féminines dans les antennes de l'université de La Mecque et de Djeddah en 1973. Elle travaille à l'ouverture des études universitaires pour les Saoudiennes. Elle devient vice-doyenne de la faculté de Médecine en 1974.
+Elle étudie le métabolisme des médicaments sur la population saoudienne. Elle fonde et dirige l'Unité de contrôle des médicaments au Centre du Roi Fahd à l'université du roi Abdulaziz. Elle est la première personne d'origine saoudienne à devenir professeur en pharmacologie, en 1983. Elle siège au conseil d'administration de l'Arab Science and Technology Foundation.
 </t>
         </is>
       </c>
